--- a/biology/Botanique/Géonémie/Géonémie.xlsx
+++ b/biology/Botanique/Géonémie/Géonémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9on%C3%A9mie</t>
+          <t>Géonémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La géonémie est l'étude descriptive de la répartition géographique des êtres vivants à l'échelle des temps géologiques.
 Cette discipline scientifique relève de la biogéographie qui s'attache à décrire et à expliquer la répartition géographique des animaux (zoogéographie) et des végétaux (phytogéographie) sur la Terre.  Au cours des temps géologiques, la répartition des êtres vivants sur la planète est conditionnée par les modifications du climat et les mouvements des masses continentales. La géonémie décrit cette répartition tandis que la chorologie en recherche les causes.
